--- a/rota_generator_template.xlsx
+++ b/rota_generator_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs-my.sharepoint.com/personal/jo_daniels2_nhs_net/Documents/Desktop/Updated Rota Generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="11_49099AA4B7B3BB4C0026FAA82248BC923F1BDD48" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48D109F3-0BF4-4A01-B230-917AC3FB8705}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA524CD-EFAE-466D-9B15-92C2C9A5C977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-225" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Staff" sheetId="1" r:id="rId1"/>
@@ -21,25 +21,12 @@
     <sheet name="Handler_Leave" sheetId="6" r:id="rId6"/>
     <sheet name="WeeklyTargets" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="106">
   <si>
     <t>Name</t>
   </si>
@@ -356,7 +343,7 @@
     <t xml:space="preserve">Christine Udoh </t>
   </si>
   <si>
-    <t>sick</t>
+    <t>Absent</t>
   </si>
 </sst>
 </file>
@@ -401,8 +388,8 @@
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -419,10 +406,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -712,1257 +695,1261 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:U27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="I2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="K2" s="2">
+      <c r="K2" s="1">
         <v>5</v>
       </c>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="U2" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="C4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2">
+      <c r="C5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
         <v>5</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="F6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="C7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
-      <c r="P7" s="2"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U8" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="C8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U8" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2"/>
-      <c r="T9" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U9" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="C9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U9" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="C10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2"/>
-      <c r="T10" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U10" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="F10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U10" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="C11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2"/>
-      <c r="T11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U11" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="F11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U11" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2">
+      <c r="E12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
         <v>5</v>
       </c>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U12" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2"/>
-      <c r="T13" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
+      <c r="C13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U13" s="1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="P14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
+      <c r="F14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U14" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="P15" s="2"/>
-      <c r="Q15" s="2"/>
-      <c r="R15" s="2"/>
-      <c r="S15" s="2"/>
-      <c r="T15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
+      <c r="C15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U15" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="C16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="P16" s="2"/>
-      <c r="Q16" s="2"/>
-      <c r="R16" s="2"/>
-      <c r="S16" s="2"/>
-      <c r="T16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
+      <c r="F16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U16" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="C17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A18" s="2" t="s">
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U17" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="2" t="s">
+      <c r="C18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
-      <c r="P18" s="2"/>
-      <c r="Q18" s="2"/>
-      <c r="R18" s="2"/>
-      <c r="S18" s="2"/>
-      <c r="T18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A19" s="2" t="s">
+      <c r="F18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U18" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="C19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="S19" s="2"/>
-      <c r="T19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A20" s="2" t="s">
+      <c r="F19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U19" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="C20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="P20" s="2"/>
-      <c r="Q20" s="2"/>
-      <c r="R20" s="2"/>
-      <c r="S20" s="2"/>
-      <c r="T20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U20" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E21" s="2" t="s">
+      <c r="C21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="S21" s="2"/>
-      <c r="T21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U21" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
+      <c r="F21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U21" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="2"/>
-      <c r="R22" s="2"/>
-      <c r="S22" s="2"/>
-      <c r="T22" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U22" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A23" s="2" t="s">
+      <c r="C22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U22" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U23" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A24" s="2" t="s">
+      <c r="C23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U23" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U24" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A25" s="2" t="s">
+      <c r="C24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U24" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E25" s="2" t="s">
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2">
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
         <v>4</v>
       </c>
-      <c r="N25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="P25" s="2"/>
-      <c r="Q25" s="2"/>
-      <c r="R25" s="2"/>
-      <c r="S25" s="2"/>
-      <c r="T25" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U25" s="2" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U25" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2">
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
         <v>5</v>
       </c>
-      <c r="N26" s="2"/>
-      <c r="O26" s="2"/>
-      <c r="P26" s="2"/>
-      <c r="Q26" s="2"/>
-      <c r="R26" s="2"/>
-      <c r="S26" s="2"/>
-      <c r="T26" s="2"/>
-      <c r="U26" s="2"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="U26" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1973,13 +1960,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K26"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:K26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2014,7 +2001,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -2049,7 +2036,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -2072,7 +2059,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>25</v>
       </c>
@@ -2107,7 +2094,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -2130,7 +2117,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -2165,7 +2152,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2194,7 +2181,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2217,7 +2204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2246,7 +2233,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2263,7 +2250,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2286,7 +2273,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>34</v>
       </c>
@@ -2315,7 +2302,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
@@ -2350,7 +2337,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
@@ -2385,7 +2372,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -2420,7 +2407,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
@@ -2455,7 +2442,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -2490,7 +2477,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -2519,7 +2506,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
@@ -2548,7 +2535,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
@@ -2577,7 +2564,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
@@ -2606,7 +2593,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>44</v>
       </c>
@@ -2635,7 +2622,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -2664,7 +2651,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>46</v>
       </c>
@@ -2693,12 +2680,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25" t="s">
-        <v>79</v>
+      <c r="B25" s="2">
+        <v>0.33333333333333331</v>
       </c>
       <c r="C25" t="s">
         <v>64</v>
@@ -2728,38 +2715,38 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
         <v>68</v>
       </c>
-      <c r="D26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
         <v>68</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="1" t="s">
+      <c r="F26" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" t="s">
         <v>68</v>
       </c>
-      <c r="H26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" t="s">
+        <v>58</v>
+      </c>
+      <c r="I26" t="s">
         <v>68</v>
       </c>
-      <c r="J26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="K26" s="1" t="s">
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="K26" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2772,16 +2759,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="3" width="10.453125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2795,7 +2779,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>104</v>
       </c>
@@ -2818,13 +2802,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:G12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>82</v>
       </c>
@@ -2844,7 +2826,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>58</v>
       </c>
@@ -2864,7 +2846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>88</v>
       </c>
@@ -2884,7 +2866,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>67</v>
       </c>
@@ -2904,7 +2886,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>59</v>
       </c>
@@ -2924,7 +2906,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>89</v>
       </c>
@@ -2944,7 +2926,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -2964,7 +2946,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -2984,7 +2966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>90</v>
       </c>
@@ -3004,7 +2986,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>68</v>
       </c>
@@ -3024,7 +3006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>77</v>
       </c>
@@ -3044,7 +3026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>78</v>
       </c>
@@ -3075,9 +3057,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3112,7 +3094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>91</v>
       </c>
@@ -3141,7 +3123,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>92</v>
       </c>
@@ -3175,9 +3157,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3200,13 +3182,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>95</v>
       </c>
@@ -3214,7 +3196,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>97</v>
       </c>
@@ -3222,7 +3204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>98</v>
       </c>
